--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\EGCC\PLSQL-2019-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2019-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9636"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>NRO</t>
   </si>
@@ -69,43 +69,43 @@
     <t>CORONEL CASTILLO ERIC GUSTAVO</t>
   </si>
   <si>
-    <t>[S2-OPLSQ] WORKSHOP:ORACLE PL/SQL</t>
+    <t>[M1-OPLSQ] WORKSHOP:ORACLE PL/SQL</t>
   </si>
   <si>
-    <t>Do 08:00-14:00</t>
+    <t>Do 15:00-21:00</t>
   </si>
   <si>
-    <t>ARANGUREN ESPINOZA KARINA MARITA</t>
+    <t>ARMAS BENAVIDES RAUL MARCELO</t>
   </si>
   <si>
-    <t>BUSTAMANTE SUMIRE JOSE ANTONIO</t>
+    <t>BARCENES JIMENEZ ROOSVETH FELIPE</t>
   </si>
   <si>
-    <t>CAMUS RUEDA JULISSA CAROLINA</t>
+    <t>CENTENO FRANCIA ELVIS ROGER</t>
   </si>
   <si>
-    <t>CASTILLO VILLANUEVA LUIS ERNESTO</t>
+    <t>CHUMBIPUMA VILLA NELSON JANSS</t>
   </si>
   <si>
-    <t>ESPINO QUIÑONES LEONARDO</t>
+    <t>CORNEJO CARI IRVIN ABEL</t>
   </si>
   <si>
-    <t>LÓPEZ VILLANUEVA TIMOTEO ANDRÉS</t>
+    <t>DIAZ SANCHEZ LOURDES VICTORIA</t>
   </si>
   <si>
-    <t>PALOMINO ELESCANO GIANCARLO</t>
+    <t>ESCOBAR VILLAGOMEZ JACKELINE KARINA</t>
   </si>
   <si>
-    <t>TREBEJO LOAYZA WALDO JEFFERSON</t>
+    <t>HUACHACA CUELLAR MARIA JUANA</t>
   </si>
   <si>
-    <t>VEGA BLAS ROBERT JAIME</t>
+    <t>MASGO FERREYRA DIVAD JAIR</t>
   </si>
   <si>
-    <t>QUEZADA HUERTA PABLO FREDERICK</t>
+    <t>MELENDEZ RAMOS ENRIQUE MANUEL</t>
   </si>
   <si>
-    <t>VASQUEZ LLOCCLLA ALVARADO JOEL</t>
+    <t>PEÑA PEÑA EDGAR AUGUSTO</t>
   </si>
 </sst>
 </file>
@@ -288,6 +288,286 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -334,6 +614,3301 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2057" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="Control 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2059" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2059"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2060" name="Control 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2061" name="Control 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2062" name="Control 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2068" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2069" name="Control 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2069"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2070" name="Control 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2070"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2071" name="Control 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2072" name="Control 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2073" name="Control 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2074" name="Control 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2075" name="Control 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2076" name="Control 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2077" name="Control 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Control 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2079" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2080" name="Control 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Control 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2082" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2083" name="Control 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2084" name="Control 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2085" name="Control 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2086" name="Control 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2086"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2087" name="Control 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2087"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2088" name="Control 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2088"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2089" name="Control 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2089"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2090" name="Control 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2090"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Control 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2092" name="Control 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2092"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2093" name="Control 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2093"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2094" name="Control 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2094"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2095" name="Control 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2095"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2096" name="Control 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2096"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2097" name="Control 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2098" name="Control 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2099" name="Control 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2100" name="Control 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2101" name="Control 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2102" name="Control 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2103" name="Control 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2104" name="Control 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2105" name="Control 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2106" name="Control 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2107" name="Control 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2107"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2108" name="Control 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2108"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2109" name="Control 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2109"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2110" name="Control 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2110"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2111" name="Control 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2111"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2112" name="Control 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2112"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2113" name="Control 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2113"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2114" name="Control 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2114"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2115" name="Control 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2115"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2116" name="Control 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2116"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2117" name="Control 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2117"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2118" name="Control 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2118"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -605,20 +4180,20 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -628,7 +4203,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -646,31 +4221,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="6">
-        <v>201906</v>
+        <v>201908</v>
       </c>
       <c r="D6" s="14">
-        <v>43646</v>
+        <v>43701</v>
       </c>
       <c r="E6" s="14">
-        <v>43676</v>
+        <v>43732</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -690,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -700,17 +4275,11 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -720,29 +4289,25 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -753,12 +4318,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -768,15 +4331,11 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -786,17 +4345,11 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -806,60 +4359,44 @@
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -868,27 +4405,21 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -898,7 +4429,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -921,92 +4452,1830 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="C2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4</v>
-      </c>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>6</v>
-      </c>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>7</v>
-      </c>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>8</v>
-      </c>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>9</v>
-      </c>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId4" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId4" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId6" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId6" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId7" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId7" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId8" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId8" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId9" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId9" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId10" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId10" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId11" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId11" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId12" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId12" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId13" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId13" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId14" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId14" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId15" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId15" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId16" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId16" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId17" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId17" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId18" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId18" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId19" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId19" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId20" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId20" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId21" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId21" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId22" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId22" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId23" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId23" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId24" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId24" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId25" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId25" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId26" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId26" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId27" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId27" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId28" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId28" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId29" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId29" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId30" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId30" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId31" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId31" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId32" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId32" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId33" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId33" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId34" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId34" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId35" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId35" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId36" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId36" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId37" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId37" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId38" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId38" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId39" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId39" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId40" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId40" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId41" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId41" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId42" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId42" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId43" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId43" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId44" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId44" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId45" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId45" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId46" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId46" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId47" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId47" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId48" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId48" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId49" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId49" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId50" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId50" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId51" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId51" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId52" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId52" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId53" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId53" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId54" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId54" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId55" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId55" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId56" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId56" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId57" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId57" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId58" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId58" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId59" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId59" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId60" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId60" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId61" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId61" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId62" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId62" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId63" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId63" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId64" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId64" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId65" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId65" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId66" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId66" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId67" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId67" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId68" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId68" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId69" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId69" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId70" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId70" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId71" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId71" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId72" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId72" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId73" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId73" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId74" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId74" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2019-08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\PLSQL-2019-08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D73E5-F416-4BF3-ABE9-54F78D27C088}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9636"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>NRO</t>
   </si>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +586,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -630,9 +637,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -641,6 +648,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -677,9 +687,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -688,6 +698,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -724,9 +737,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -735,6 +748,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -771,9 +787,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -782,6 +798,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -818,9 +837,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -829,6 +848,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -865,9 +887,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -876,6 +898,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -912,9 +937,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -923,6 +948,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -959,9 +987,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -970,6 +998,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1006,9 +1037,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1017,6 +1048,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1053,9 +1087,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1064,6 +1098,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1100,9 +1137,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1111,6 +1148,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1147,9 +1187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1158,6 +1198,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1194,9 +1237,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1205,6 +1248,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1241,9 +1287,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1252,6 +1298,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1288,9 +1337,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1299,6 +1348,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1335,9 +1387,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1346,6 +1398,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1382,9 +1437,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1393,6 +1448,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1429,9 +1487,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1440,6 +1498,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1476,9 +1537,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1487,6 +1548,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1523,9 +1587,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1534,6 +1598,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1570,9 +1637,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1581,6 +1648,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1617,9 +1687,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1628,6 +1698,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2070"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1664,9 +1737,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1675,6 +1748,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1711,9 +1787,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1722,6 +1798,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2072"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1758,9 +1837,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1769,6 +1848,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2073"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1805,9 +1887,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1816,6 +1898,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1852,9 +1937,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1863,6 +1948,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2075"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1899,9 +1987,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1910,6 +1998,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2076"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1946,9 +2037,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1957,6 +2048,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2077"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1993,9 +2087,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2004,6 +2098,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2078"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2040,9 +2137,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2051,6 +2148,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2079"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2087,9 +2187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2098,6 +2198,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2080"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2134,9 +2237,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2145,6 +2248,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2081"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2181,9 +2287,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2192,6 +2298,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2228,9 +2337,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2239,6 +2348,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2083"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2275,9 +2387,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2286,6 +2398,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2084"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2322,9 +2437,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2333,6 +2448,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2085"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2369,9 +2487,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2380,6 +2498,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2086"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2416,9 +2537,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2427,6 +2548,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2087"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2463,9 +2587,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2474,6 +2598,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2088"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2510,9 +2637,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2521,6 +2648,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2089"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2557,9 +2687,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2568,6 +2698,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2090"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2604,9 +2737,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2615,6 +2748,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2091"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2651,9 +2787,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2662,6 +2798,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2092"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2698,9 +2837,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2709,6 +2848,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2093"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2745,9 +2887,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2756,6 +2898,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2094"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2792,9 +2937,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2803,6 +2948,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2095"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2839,9 +2987,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2850,6 +2998,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2096"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2886,9 +3037,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2897,6 +3048,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2097"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2933,9 +3087,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2944,6 +3098,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2980,9 +3137,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2991,6 +3148,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2099"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3027,9 +3187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,6 +3198,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2100"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3074,9 +3237,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3085,6 +3248,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2101"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3121,9 +3287,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3132,6 +3298,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2102"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3168,9 +3337,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3179,6 +3348,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2103"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3215,9 +3387,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3226,6 +3398,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3262,9 +3437,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3273,6 +3448,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3309,9 +3487,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3320,6 +3498,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3356,9 +3537,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3367,6 +3548,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2107"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3403,9 +3587,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3414,6 +3598,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2108"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3450,9 +3637,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3461,6 +3648,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2109"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3497,9 +3687,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3508,6 +3698,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2110"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3544,9 +3737,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3555,6 +3748,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2111"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3591,9 +3787,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3602,6 +3798,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2112"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3638,9 +3837,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3649,6 +3848,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2113"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3685,9 +3887,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3696,6 +3898,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2114"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3732,9 +3937,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3743,6 +3948,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2115"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3779,9 +3987,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3790,6 +3998,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2116"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3826,9 +4037,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3837,6 +4048,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2117"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3873,9 +4087,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3883,6 +4097,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4174,26 +4391,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -4203,7 +4420,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -4221,7 +4438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
@@ -4239,13 +4456,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -4277,9 +4494,11 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4293,7 +4512,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -4305,9 +4524,11 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -4319,9 +4540,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -4335,7 +4558,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -4347,9 +4570,11 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -4363,7 +4588,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -4375,9 +4600,11 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -4389,9 +4616,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -4403,9 +4632,11 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -4417,9 +4648,11 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -4429,7 +4662,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -4452,7 +4685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C2:C12"/>
   <sheetViews>
@@ -4460,62 +4693,62 @@
       <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -4528,157 +4761,1057 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId4" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId9" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId10" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId4" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId6" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId11" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId12" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId12" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId13" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId14" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId14" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId15" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId15" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId16" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId16" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId17" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId6" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId7" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId17" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId18" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId18" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId19" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId19" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId20" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId20" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId21" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId21" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId22" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId22" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId23" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId7" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId8" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId23" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId24" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId24" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId25" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId25" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId26" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId26" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId27" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId27" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId28" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId28" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId29" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId8" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId9" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId29" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId30" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId30" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId31" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId31" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId32" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId32" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId33" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId33" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId34" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId34" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId35" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId9" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId10" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId35" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId36" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId36" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId37" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId37" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId38" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId38" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId39" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId39" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId40" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId40" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId41" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId10" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId11" name="Control 64">
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId41" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId42" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId42" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId43" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId43" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId44" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId44" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId45" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId45" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId46" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId46" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId47" name="Control 43">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4689,1591 +5822,691 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId11" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId12" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId47" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId48" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId48" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId49" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId49" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId50" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId50" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId51" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId51" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId52" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId52" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId53" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId12" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId13" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId53" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId54" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId54" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId55" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId55" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId56" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId56" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId57" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId57" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId58" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId58" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId59" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId13" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId14" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId59" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId60" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId60" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId61" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId61" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId62" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId62" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId63" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId63" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId64" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId64" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId65" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId14" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId15" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId65" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId66" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId66" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId67" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId67" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId68" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId68" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId69" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId69" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId70" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId70" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId71" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId15" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId16" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId16" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId17" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId17" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId18" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId18" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId19" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId71" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId72" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId72" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId73" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId73" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId74" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId19" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId20" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId20" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId21" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId21" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId22" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId22" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId23" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId23" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId24" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId24" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId25" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId25" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId26" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId26" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId27" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId27" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId28" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId28" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId29" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId29" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId30" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId30" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId31" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId31" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId32" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId32" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId33" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId33" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId34" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId34" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId35" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId35" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId36" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId36" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId37" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId37" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId38" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId38" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId39" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId39" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId40" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId40" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId41" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId41" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId42" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId42" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId43" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId43" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId44" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId44" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId45" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId45" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId46" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId46" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId47" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId47" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId48" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId48" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId49" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId49" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId50" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId50" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId51" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId51" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId52" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId52" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId53" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId53" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId54" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId54" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId55" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId55" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId56" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId56" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId57" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId57" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId58" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId58" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId59" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId59" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId60" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId60" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId61" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId61" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId62" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId62" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId63" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId63" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId64" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId64" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId65" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId65" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId66" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId66" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId67" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId67" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId68" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId68" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId69" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId69" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId70" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId70" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId71" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId71" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId72" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId72" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId73" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId73" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId74" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId74" name="Control 1"/>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId74" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\PLSQL-2019-08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6D73E5-F416-4BF3-ABE9-54F78D27C088}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2019-08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>NRO</t>
   </si>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,9 +636,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -687,9 +686,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -737,9 +736,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -787,9 +786,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -837,9 +836,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -887,9 +886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -937,9 +936,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -987,9 +986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1037,9 +1036,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1087,9 +1086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1137,9 +1136,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1187,9 +1186,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1237,9 +1236,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1287,9 +1286,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1337,9 +1336,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1387,9 +1386,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1437,9 +1436,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1487,9 +1486,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1537,9 +1536,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1587,9 +1586,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1637,9 +1636,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1687,9 +1686,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1737,9 +1736,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1787,9 +1786,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1837,9 +1836,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1887,9 +1886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1937,9 +1936,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1987,9 +1986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2037,9 +2036,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2087,9 +2086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2137,9 +2136,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2187,9 +2186,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2237,9 +2236,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2287,9 +2286,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2337,9 +2336,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2387,9 +2386,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2437,9 +2436,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2487,9 +2486,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2537,9 +2536,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2587,9 +2586,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2637,9 +2636,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2687,9 +2686,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2737,9 +2736,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2787,9 +2786,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2837,9 +2836,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2887,9 +2886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2937,9 +2936,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2987,9 +2986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3037,9 +3036,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3087,9 +3086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3137,9 +3136,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3187,9 +3186,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3237,9 +3236,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3287,9 +3286,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3337,9 +3336,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3387,9 +3386,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3437,9 +3436,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3487,9 +3486,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3537,9 +3536,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3587,9 +3586,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3637,9 +3636,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3687,9 +3686,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3737,9 +3736,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3787,9 +3786,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3837,9 +3836,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3887,9 +3886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3937,9 +3936,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3987,9 +3986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4037,9 +4036,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4087,9 +4086,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4391,26 +4390,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -4420,7 +4419,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
@@ -4456,13 +4455,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -4492,13 +4491,17 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4512,7 +4515,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -4522,13 +4525,17 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -4538,13 +4545,17 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -4558,7 +4569,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -4568,13 +4579,17 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -4584,11 +4599,15 @@
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -4598,13 +4617,17 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -4614,13 +4637,17 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -4630,13 +4657,17 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -4646,13 +4677,17 @@
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -4662,7 +4697,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -4685,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C2:C12"/>
   <sheetViews>
@@ -4693,62 +4728,62 @@
       <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -4772,9 +4807,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4797,9 +4832,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4822,9 +4857,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4847,9 +4882,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4872,9 +4907,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4897,9 +4932,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4922,9 +4957,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4947,9 +4982,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4972,9 +5007,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -4997,9 +5032,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5022,9 +5057,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5047,9 +5082,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5072,9 +5107,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5097,9 +5132,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5122,9 +5157,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5147,9 +5182,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5172,9 +5207,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5197,9 +5232,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5222,9 +5257,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5247,9 +5282,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5272,9 +5307,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5297,9 +5332,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5322,9 +5357,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5347,9 +5382,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5372,9 +5407,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5397,9 +5432,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5422,9 +5457,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5447,9 +5482,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5472,9 +5507,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5497,9 +5532,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5522,9 +5557,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5547,9 +5582,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5572,9 +5607,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5597,9 +5632,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5622,9 +5657,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5647,9 +5682,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5672,9 +5707,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5697,9 +5732,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5722,9 +5757,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5747,9 +5782,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5772,9 +5807,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5797,9 +5832,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5822,9 +5857,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5847,9 +5882,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5872,9 +5907,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5897,9 +5932,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5922,9 +5957,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5947,9 +5982,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5972,9 +6007,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -5997,9 +6032,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6022,9 +6057,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6047,9 +6082,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6072,9 +6107,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6097,9 +6132,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6122,9 +6157,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6147,9 +6182,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6172,9 +6207,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6197,9 +6232,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6222,9 +6257,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6247,9 +6282,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6272,9 +6307,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6297,9 +6332,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6322,9 +6357,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6347,9 +6382,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6372,9 +6407,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6397,9 +6432,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6422,9 +6457,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6447,9 +6482,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6472,9 +6507,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6497,9 +6532,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
